--- a/匯入測試.xlsx
+++ b/匯入測試.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E34C0-78D5-4B7D-A73D-D3B14D8F0737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D238B0-5984-4F4C-A31F-199B44EAD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="3585" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
+    <workbookView xWindow="4785" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ABC123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>G84541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000988</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,15 +518,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/匯入測試.xlsx
+++ b/匯入測試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D238B0-5984-4F4C-A31F-199B44EAD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E14FF-3088-4421-BB12-DC5FA58C3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>00000988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FKK128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000444</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A72EA0-FC82-45CC-AE77-64DC956DCFF5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -529,6 +537,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/匯入測試.xlsx
+++ b/匯入測試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E14FF-3088-4421-BB12-DC5FA58C3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687483A-A0BD-4049-ADCF-FE29DA00B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>00000444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000448</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A72EA0-FC82-45CC-AE77-64DC956DCFF5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -545,6 +553,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/匯入測試.xlsx
+++ b/匯入測試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D238B0-5984-4F4C-A31F-199B44EAD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687483A-A0BD-4049-ADCF-FE29DA00B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,22 @@
   </si>
   <si>
     <t>00000988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FKK128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000448</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A72EA0-FC82-45CC-AE77-64DC956DCFF5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -529,6 +545,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/匯入測試.xlsx
+++ b/匯入測試.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687483A-A0BD-4049-ADCF-FE29DA00B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C1EB9-FE24-4DFA-B794-712F03D06515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>00000448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>565656</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A72EA0-FC82-45CC-AE77-64DC956DCFF5}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -561,6 +569,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/匯入測試.xlsx
+++ b/匯入測試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C1EB9-FE24-4DFA-B794-712F03D06515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F84BB6D-D1D4-49FF-BA4A-A2C555BC3749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{EC49AD3A-DE12-4EA3-87D7-2D0FF9EB4FD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,1482 @@
   <si>
     <t>565656</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000450</t>
+  </si>
+  <si>
+    <t>00000451</t>
+  </si>
+  <si>
+    <t>00000452</t>
+  </si>
+  <si>
+    <t>00000453</t>
+  </si>
+  <si>
+    <t>00000454</t>
+  </si>
+  <si>
+    <t>00000455</t>
+  </si>
+  <si>
+    <t>00000456</t>
+  </si>
+  <si>
+    <t>00000457</t>
+  </si>
+  <si>
+    <t>00000458</t>
+  </si>
+  <si>
+    <t>00000459</t>
+  </si>
+  <si>
+    <t>00000460</t>
+  </si>
+  <si>
+    <t>00000461</t>
+  </si>
+  <si>
+    <t>00000462</t>
+  </si>
+  <si>
+    <t>00000463</t>
+  </si>
+  <si>
+    <t>00000464</t>
+  </si>
+  <si>
+    <t>00000465</t>
+  </si>
+  <si>
+    <t>00000466</t>
+  </si>
+  <si>
+    <t>00000467</t>
+  </si>
+  <si>
+    <t>00000468</t>
+  </si>
+  <si>
+    <t>00000469</t>
+  </si>
+  <si>
+    <t>00000470</t>
+  </si>
+  <si>
+    <t>00000471</t>
+  </si>
+  <si>
+    <t>00000472</t>
+  </si>
+  <si>
+    <t>00000473</t>
+  </si>
+  <si>
+    <t>00000474</t>
+  </si>
+  <si>
+    <t>00000475</t>
+  </si>
+  <si>
+    <t>00000476</t>
+  </si>
+  <si>
+    <t>00000477</t>
+  </si>
+  <si>
+    <t>00000478</t>
+  </si>
+  <si>
+    <t>00000479</t>
+  </si>
+  <si>
+    <t>00000480</t>
+  </si>
+  <si>
+    <t>00000481</t>
+  </si>
+  <si>
+    <t>00000482</t>
+  </si>
+  <si>
+    <t>00000483</t>
+  </si>
+  <si>
+    <t>00000484</t>
+  </si>
+  <si>
+    <t>00000485</t>
+  </si>
+  <si>
+    <t>00000486</t>
+  </si>
+  <si>
+    <t>00000487</t>
+  </si>
+  <si>
+    <t>00000488</t>
+  </si>
+  <si>
+    <t>00000489</t>
+  </si>
+  <si>
+    <t>00000490</t>
+  </si>
+  <si>
+    <t>00000491</t>
+  </si>
+  <si>
+    <t>00000492</t>
+  </si>
+  <si>
+    <t>00000493</t>
+  </si>
+  <si>
+    <t>00000494</t>
+  </si>
+  <si>
+    <t>00000495</t>
+  </si>
+  <si>
+    <t>00000496</t>
+  </si>
+  <si>
+    <t>00000497</t>
+  </si>
+  <si>
+    <t>00000498</t>
+  </si>
+  <si>
+    <t>00000499</t>
+  </si>
+  <si>
+    <t>00000500</t>
+  </si>
+  <si>
+    <t>00000501</t>
+  </si>
+  <si>
+    <t>00000502</t>
+  </si>
+  <si>
+    <t>00000503</t>
+  </si>
+  <si>
+    <t>00000504</t>
+  </si>
+  <si>
+    <t>00000505</t>
+  </si>
+  <si>
+    <t>00000506</t>
+  </si>
+  <si>
+    <t>00000507</t>
+  </si>
+  <si>
+    <t>00000508</t>
+  </si>
+  <si>
+    <t>00000509</t>
+  </si>
+  <si>
+    <t>00000510</t>
+  </si>
+  <si>
+    <t>00000511</t>
+  </si>
+  <si>
+    <t>00000512</t>
+  </si>
+  <si>
+    <t>00000513</t>
+  </si>
+  <si>
+    <t>00000514</t>
+  </si>
+  <si>
+    <t>00000515</t>
+  </si>
+  <si>
+    <t>00000516</t>
+  </si>
+  <si>
+    <t>00000517</t>
+  </si>
+  <si>
+    <t>00000518</t>
+  </si>
+  <si>
+    <t>00000519</t>
+  </si>
+  <si>
+    <t>00000520</t>
+  </si>
+  <si>
+    <t>00000521</t>
+  </si>
+  <si>
+    <t>00000522</t>
+  </si>
+  <si>
+    <t>00000523</t>
+  </si>
+  <si>
+    <t>00000524</t>
+  </si>
+  <si>
+    <t>00000525</t>
+  </si>
+  <si>
+    <t>00000526</t>
+  </si>
+  <si>
+    <t>00000527</t>
+  </si>
+  <si>
+    <t>00000528</t>
+  </si>
+  <si>
+    <t>00000529</t>
+  </si>
+  <si>
+    <t>00000530</t>
+  </si>
+  <si>
+    <t>00000531</t>
+  </si>
+  <si>
+    <t>00000532</t>
+  </si>
+  <si>
+    <t>00000533</t>
+  </si>
+  <si>
+    <t>00000534</t>
+  </si>
+  <si>
+    <t>00000535</t>
+  </si>
+  <si>
+    <t>00000536</t>
+  </si>
+  <si>
+    <t>00000537</t>
+  </si>
+  <si>
+    <t>00000538</t>
+  </si>
+  <si>
+    <t>00000539</t>
+  </si>
+  <si>
+    <t>00000540</t>
+  </si>
+  <si>
+    <t>00000541</t>
+  </si>
+  <si>
+    <t>00000542</t>
+  </si>
+  <si>
+    <t>00000543</t>
+  </si>
+  <si>
+    <t>00000544</t>
+  </si>
+  <si>
+    <t>00000545</t>
+  </si>
+  <si>
+    <t>00000546</t>
+  </si>
+  <si>
+    <t>00000547</t>
+  </si>
+  <si>
+    <t>00000548</t>
+  </si>
+  <si>
+    <t>00000549</t>
+  </si>
+  <si>
+    <t>00000550</t>
+  </si>
+  <si>
+    <t>00000551</t>
+  </si>
+  <si>
+    <t>00000552</t>
+  </si>
+  <si>
+    <t>00000553</t>
+  </si>
+  <si>
+    <t>00000554</t>
+  </si>
+  <si>
+    <t>00000555</t>
+  </si>
+  <si>
+    <t>00000556</t>
+  </si>
+  <si>
+    <t>00000557</t>
+  </si>
+  <si>
+    <t>00000558</t>
+  </si>
+  <si>
+    <t>00000559</t>
+  </si>
+  <si>
+    <t>00000560</t>
+  </si>
+  <si>
+    <t>00000561</t>
+  </si>
+  <si>
+    <t>00000562</t>
+  </si>
+  <si>
+    <t>00000563</t>
+  </si>
+  <si>
+    <t>00000564</t>
+  </si>
+  <si>
+    <t>00000565</t>
+  </si>
+  <si>
+    <t>00000566</t>
+  </si>
+  <si>
+    <t>00000567</t>
+  </si>
+  <si>
+    <t>00000568</t>
+  </si>
+  <si>
+    <t>00000569</t>
+  </si>
+  <si>
+    <t>00000570</t>
+  </si>
+  <si>
+    <t>00000571</t>
+  </si>
+  <si>
+    <t>00000572</t>
+  </si>
+  <si>
+    <t>00000573</t>
+  </si>
+  <si>
+    <t>00000574</t>
+  </si>
+  <si>
+    <t>00000575</t>
+  </si>
+  <si>
+    <t>00000576</t>
+  </si>
+  <si>
+    <t>00000577</t>
+  </si>
+  <si>
+    <t>00000578</t>
+  </si>
+  <si>
+    <t>00000579</t>
+  </si>
+  <si>
+    <t>00000580</t>
+  </si>
+  <si>
+    <t>00000581</t>
+  </si>
+  <si>
+    <t>00000582</t>
+  </si>
+  <si>
+    <t>00000583</t>
+  </si>
+  <si>
+    <t>00000584</t>
+  </si>
+  <si>
+    <t>00000585</t>
+  </si>
+  <si>
+    <t>00000586</t>
+  </si>
+  <si>
+    <t>00000587</t>
+  </si>
+  <si>
+    <t>00000588</t>
+  </si>
+  <si>
+    <t>00000589</t>
+  </si>
+  <si>
+    <t>00000590</t>
+  </si>
+  <si>
+    <t>00000591</t>
+  </si>
+  <si>
+    <t>00000592</t>
+  </si>
+  <si>
+    <t>00000593</t>
+  </si>
+  <si>
+    <t>00000594</t>
+  </si>
+  <si>
+    <t>00000595</t>
+  </si>
+  <si>
+    <t>00000596</t>
+  </si>
+  <si>
+    <t>00000597</t>
+  </si>
+  <si>
+    <t>00000598</t>
+  </si>
+  <si>
+    <t>00000599</t>
+  </si>
+  <si>
+    <t>00000600</t>
+  </si>
+  <si>
+    <t>00000601</t>
+  </si>
+  <si>
+    <t>00000602</t>
+  </si>
+  <si>
+    <t>00000603</t>
+  </si>
+  <si>
+    <t>00000604</t>
+  </si>
+  <si>
+    <t>00000605</t>
+  </si>
+  <si>
+    <t>00000606</t>
+  </si>
+  <si>
+    <t>00000607</t>
+  </si>
+  <si>
+    <t>00000608</t>
+  </si>
+  <si>
+    <t>00000609</t>
+  </si>
+  <si>
+    <t>00000610</t>
+  </si>
+  <si>
+    <t>00000611</t>
+  </si>
+  <si>
+    <t>00000612</t>
+  </si>
+  <si>
+    <t>00000613</t>
+  </si>
+  <si>
+    <t>00000614</t>
+  </si>
+  <si>
+    <t>00000615</t>
+  </si>
+  <si>
+    <t>00000616</t>
+  </si>
+  <si>
+    <t>00000617</t>
+  </si>
+  <si>
+    <t>00000618</t>
+  </si>
+  <si>
+    <t>00000619</t>
+  </si>
+  <si>
+    <t>00000620</t>
+  </si>
+  <si>
+    <t>00000621</t>
+  </si>
+  <si>
+    <t>00000622</t>
+  </si>
+  <si>
+    <t>00000623</t>
+  </si>
+  <si>
+    <t>00000624</t>
+  </si>
+  <si>
+    <t>00000625</t>
+  </si>
+  <si>
+    <t>00000626</t>
+  </si>
+  <si>
+    <t>00000627</t>
+  </si>
+  <si>
+    <t>00000628</t>
+  </si>
+  <si>
+    <t>00000629</t>
+  </si>
+  <si>
+    <t>00000630</t>
+  </si>
+  <si>
+    <t>00000631</t>
+  </si>
+  <si>
+    <t>00000632</t>
+  </si>
+  <si>
+    <t>00000633</t>
+  </si>
+  <si>
+    <t>00000634</t>
+  </si>
+  <si>
+    <t>00000635</t>
+  </si>
+  <si>
+    <t>00000636</t>
+  </si>
+  <si>
+    <t>00000637</t>
+  </si>
+  <si>
+    <t>00000638</t>
+  </si>
+  <si>
+    <t>00000639</t>
+  </si>
+  <si>
+    <t>00000640</t>
+  </si>
+  <si>
+    <t>00000641</t>
+  </si>
+  <si>
+    <t>00000642</t>
+  </si>
+  <si>
+    <t>00000643</t>
+  </si>
+  <si>
+    <t>00000644</t>
+  </si>
+  <si>
+    <t>00000645</t>
+  </si>
+  <si>
+    <t>00000646</t>
+  </si>
+  <si>
+    <t>00000647</t>
+  </si>
+  <si>
+    <t>00000648</t>
+  </si>
+  <si>
+    <t>00000649</t>
+  </si>
+  <si>
+    <t>00000650</t>
+  </si>
+  <si>
+    <t>00000651</t>
+  </si>
+  <si>
+    <t>00000652</t>
+  </si>
+  <si>
+    <t>00000653</t>
+  </si>
+  <si>
+    <t>00000654</t>
+  </si>
+  <si>
+    <t>00000655</t>
+  </si>
+  <si>
+    <t>00000656</t>
+  </si>
+  <si>
+    <t>00000657</t>
+  </si>
+  <si>
+    <t>00000658</t>
+  </si>
+  <si>
+    <t>00000659</t>
+  </si>
+  <si>
+    <t>00000660</t>
+  </si>
+  <si>
+    <t>00000661</t>
+  </si>
+  <si>
+    <t>00000662</t>
+  </si>
+  <si>
+    <t>00000663</t>
+  </si>
+  <si>
+    <t>00000664</t>
+  </si>
+  <si>
+    <t>00000665</t>
+  </si>
+  <si>
+    <t>00000666</t>
+  </si>
+  <si>
+    <t>00000667</t>
+  </si>
+  <si>
+    <t>00000668</t>
+  </si>
+  <si>
+    <t>00000669</t>
+  </si>
+  <si>
+    <t>00000670</t>
+  </si>
+  <si>
+    <t>00000671</t>
+  </si>
+  <si>
+    <t>00000672</t>
+  </si>
+  <si>
+    <t>00000673</t>
+  </si>
+  <si>
+    <t>00000674</t>
+  </si>
+  <si>
+    <t>00000675</t>
+  </si>
+  <si>
+    <t>00000676</t>
+  </si>
+  <si>
+    <t>00000677</t>
+  </si>
+  <si>
+    <t>00000678</t>
+  </si>
+  <si>
+    <t>00000679</t>
+  </si>
+  <si>
+    <t>00000680</t>
+  </si>
+  <si>
+    <t>00000681</t>
+  </si>
+  <si>
+    <t>00000682</t>
+  </si>
+  <si>
+    <t>00000683</t>
+  </si>
+  <si>
+    <t>00000684</t>
+  </si>
+  <si>
+    <t>00000685</t>
+  </si>
+  <si>
+    <t>00000686</t>
+  </si>
+  <si>
+    <t>00000687</t>
+  </si>
+  <si>
+    <t>00000688</t>
+  </si>
+  <si>
+    <t>00000689</t>
+  </si>
+  <si>
+    <t>00000690</t>
+  </si>
+  <si>
+    <t>00000691</t>
+  </si>
+  <si>
+    <t>00000692</t>
+  </si>
+  <si>
+    <t>00000693</t>
+  </si>
+  <si>
+    <t>00000694</t>
+  </si>
+  <si>
+    <t>00000695</t>
+  </si>
+  <si>
+    <t>565657</t>
+  </si>
+  <si>
+    <t>565658</t>
+  </si>
+  <si>
+    <t>565659</t>
+  </si>
+  <si>
+    <t>565660</t>
+  </si>
+  <si>
+    <t>565661</t>
+  </si>
+  <si>
+    <t>565662</t>
+  </si>
+  <si>
+    <t>565663</t>
+  </si>
+  <si>
+    <t>565664</t>
+  </si>
+  <si>
+    <t>565665</t>
+  </si>
+  <si>
+    <t>565666</t>
+  </si>
+  <si>
+    <t>565667</t>
+  </si>
+  <si>
+    <t>565668</t>
+  </si>
+  <si>
+    <t>565669</t>
+  </si>
+  <si>
+    <t>565670</t>
+  </si>
+  <si>
+    <t>565671</t>
+  </si>
+  <si>
+    <t>565672</t>
+  </si>
+  <si>
+    <t>565673</t>
+  </si>
+  <si>
+    <t>565674</t>
+  </si>
+  <si>
+    <t>565675</t>
+  </si>
+  <si>
+    <t>565676</t>
+  </si>
+  <si>
+    <t>565677</t>
+  </si>
+  <si>
+    <t>565678</t>
+  </si>
+  <si>
+    <t>565679</t>
+  </si>
+  <si>
+    <t>565680</t>
+  </si>
+  <si>
+    <t>565681</t>
+  </si>
+  <si>
+    <t>565682</t>
+  </si>
+  <si>
+    <t>565683</t>
+  </si>
+  <si>
+    <t>565684</t>
+  </si>
+  <si>
+    <t>565685</t>
+  </si>
+  <si>
+    <t>565686</t>
+  </si>
+  <si>
+    <t>565687</t>
+  </si>
+  <si>
+    <t>565688</t>
+  </si>
+  <si>
+    <t>565689</t>
+  </si>
+  <si>
+    <t>565690</t>
+  </si>
+  <si>
+    <t>565691</t>
+  </si>
+  <si>
+    <t>565692</t>
+  </si>
+  <si>
+    <t>565693</t>
+  </si>
+  <si>
+    <t>565694</t>
+  </si>
+  <si>
+    <t>565695</t>
+  </si>
+  <si>
+    <t>565696</t>
+  </si>
+  <si>
+    <t>565697</t>
+  </si>
+  <si>
+    <t>565698</t>
+  </si>
+  <si>
+    <t>565699</t>
+  </si>
+  <si>
+    <t>565700</t>
+  </si>
+  <si>
+    <t>565701</t>
+  </si>
+  <si>
+    <t>565702</t>
+  </si>
+  <si>
+    <t>565703</t>
+  </si>
+  <si>
+    <t>565704</t>
+  </si>
+  <si>
+    <t>565705</t>
+  </si>
+  <si>
+    <t>565706</t>
+  </si>
+  <si>
+    <t>565707</t>
+  </si>
+  <si>
+    <t>565708</t>
+  </si>
+  <si>
+    <t>565709</t>
+  </si>
+  <si>
+    <t>565710</t>
+  </si>
+  <si>
+    <t>565711</t>
+  </si>
+  <si>
+    <t>565712</t>
+  </si>
+  <si>
+    <t>565713</t>
+  </si>
+  <si>
+    <t>565714</t>
+  </si>
+  <si>
+    <t>565715</t>
+  </si>
+  <si>
+    <t>565716</t>
+  </si>
+  <si>
+    <t>565717</t>
+  </si>
+  <si>
+    <t>565718</t>
+  </si>
+  <si>
+    <t>565719</t>
+  </si>
+  <si>
+    <t>565720</t>
+  </si>
+  <si>
+    <t>565721</t>
+  </si>
+  <si>
+    <t>565722</t>
+  </si>
+  <si>
+    <t>565723</t>
+  </si>
+  <si>
+    <t>565724</t>
+  </si>
+  <si>
+    <t>565725</t>
+  </si>
+  <si>
+    <t>565726</t>
+  </si>
+  <si>
+    <t>565727</t>
+  </si>
+  <si>
+    <t>565728</t>
+  </si>
+  <si>
+    <t>565729</t>
+  </si>
+  <si>
+    <t>565730</t>
+  </si>
+  <si>
+    <t>565731</t>
+  </si>
+  <si>
+    <t>565732</t>
+  </si>
+  <si>
+    <t>565733</t>
+  </si>
+  <si>
+    <t>565734</t>
+  </si>
+  <si>
+    <t>565735</t>
+  </si>
+  <si>
+    <t>565736</t>
+  </si>
+  <si>
+    <t>565737</t>
+  </si>
+  <si>
+    <t>565738</t>
+  </si>
+  <si>
+    <t>565739</t>
+  </si>
+  <si>
+    <t>565740</t>
+  </si>
+  <si>
+    <t>565741</t>
+  </si>
+  <si>
+    <t>565742</t>
+  </si>
+  <si>
+    <t>565743</t>
+  </si>
+  <si>
+    <t>565744</t>
+  </si>
+  <si>
+    <t>565745</t>
+  </si>
+  <si>
+    <t>565746</t>
+  </si>
+  <si>
+    <t>565747</t>
+  </si>
+  <si>
+    <t>565748</t>
+  </si>
+  <si>
+    <t>565749</t>
+  </si>
+  <si>
+    <t>565750</t>
+  </si>
+  <si>
+    <t>565751</t>
+  </si>
+  <si>
+    <t>565752</t>
+  </si>
+  <si>
+    <t>565753</t>
+  </si>
+  <si>
+    <t>565754</t>
+  </si>
+  <si>
+    <t>565755</t>
+  </si>
+  <si>
+    <t>565756</t>
+  </si>
+  <si>
+    <t>565757</t>
+  </si>
+  <si>
+    <t>565758</t>
+  </si>
+  <si>
+    <t>565759</t>
+  </si>
+  <si>
+    <t>565760</t>
+  </si>
+  <si>
+    <t>565761</t>
+  </si>
+  <si>
+    <t>565762</t>
+  </si>
+  <si>
+    <t>565763</t>
+  </si>
+  <si>
+    <t>565764</t>
+  </si>
+  <si>
+    <t>565765</t>
+  </si>
+  <si>
+    <t>565766</t>
+  </si>
+  <si>
+    <t>565767</t>
+  </si>
+  <si>
+    <t>565768</t>
+  </si>
+  <si>
+    <t>565769</t>
+  </si>
+  <si>
+    <t>565770</t>
+  </si>
+  <si>
+    <t>565771</t>
+  </si>
+  <si>
+    <t>565772</t>
+  </si>
+  <si>
+    <t>565773</t>
+  </si>
+  <si>
+    <t>565774</t>
+  </si>
+  <si>
+    <t>565775</t>
+  </si>
+  <si>
+    <t>565776</t>
+  </si>
+  <si>
+    <t>565777</t>
+  </si>
+  <si>
+    <t>565778</t>
+  </si>
+  <si>
+    <t>565779</t>
+  </si>
+  <si>
+    <t>565780</t>
+  </si>
+  <si>
+    <t>565781</t>
+  </si>
+  <si>
+    <t>565782</t>
+  </si>
+  <si>
+    <t>565783</t>
+  </si>
+  <si>
+    <t>565784</t>
+  </si>
+  <si>
+    <t>565785</t>
+  </si>
+  <si>
+    <t>565786</t>
+  </si>
+  <si>
+    <t>565787</t>
+  </si>
+  <si>
+    <t>565788</t>
+  </si>
+  <si>
+    <t>565789</t>
+  </si>
+  <si>
+    <t>565790</t>
+  </si>
+  <si>
+    <t>565791</t>
+  </si>
+  <si>
+    <t>565792</t>
+  </si>
+  <si>
+    <t>565793</t>
+  </si>
+  <si>
+    <t>565794</t>
+  </si>
+  <si>
+    <t>565795</t>
+  </si>
+  <si>
+    <t>565796</t>
+  </si>
+  <si>
+    <t>565797</t>
+  </si>
+  <si>
+    <t>565798</t>
+  </si>
+  <si>
+    <t>565799</t>
+  </si>
+  <si>
+    <t>565800</t>
+  </si>
+  <si>
+    <t>565801</t>
+  </si>
+  <si>
+    <t>565802</t>
+  </si>
+  <si>
+    <t>565803</t>
+  </si>
+  <si>
+    <t>565804</t>
+  </si>
+  <si>
+    <t>565805</t>
+  </si>
+  <si>
+    <t>565806</t>
+  </si>
+  <si>
+    <t>565807</t>
+  </si>
+  <si>
+    <t>565808</t>
+  </si>
+  <si>
+    <t>565809</t>
+  </si>
+  <si>
+    <t>565810</t>
+  </si>
+  <si>
+    <t>565811</t>
+  </si>
+  <si>
+    <t>565812</t>
+  </si>
+  <si>
+    <t>565813</t>
+  </si>
+  <si>
+    <t>565814</t>
+  </si>
+  <si>
+    <t>565815</t>
+  </si>
+  <si>
+    <t>565816</t>
+  </si>
+  <si>
+    <t>565817</t>
+  </si>
+  <si>
+    <t>565818</t>
+  </si>
+  <si>
+    <t>565819</t>
+  </si>
+  <si>
+    <t>565820</t>
+  </si>
+  <si>
+    <t>565821</t>
+  </si>
+  <si>
+    <t>565822</t>
+  </si>
+  <si>
+    <t>565823</t>
+  </si>
+  <si>
+    <t>565824</t>
+  </si>
+  <si>
+    <t>565825</t>
+  </si>
+  <si>
+    <t>565826</t>
+  </si>
+  <si>
+    <t>565827</t>
+  </si>
+  <si>
+    <t>565828</t>
+  </si>
+  <si>
+    <t>565829</t>
+  </si>
+  <si>
+    <t>565830</t>
+  </si>
+  <si>
+    <t>565831</t>
+  </si>
+  <si>
+    <t>565832</t>
+  </si>
+  <si>
+    <t>565833</t>
+  </si>
+  <si>
+    <t>565834</t>
+  </si>
+  <si>
+    <t>565835</t>
+  </si>
+  <si>
+    <t>565836</t>
+  </si>
+  <si>
+    <t>565837</t>
+  </si>
+  <si>
+    <t>565838</t>
+  </si>
+  <si>
+    <t>565839</t>
+  </si>
+  <si>
+    <t>565840</t>
+  </si>
+  <si>
+    <t>565841</t>
+  </si>
+  <si>
+    <t>565842</t>
+  </si>
+  <si>
+    <t>565843</t>
+  </si>
+  <si>
+    <t>565844</t>
+  </si>
+  <si>
+    <t>565845</t>
+  </si>
+  <si>
+    <t>565846</t>
+  </si>
+  <si>
+    <t>565847</t>
+  </si>
+  <si>
+    <t>565848</t>
+  </si>
+  <si>
+    <t>565849</t>
+  </si>
+  <si>
+    <t>565850</t>
+  </si>
+  <si>
+    <t>565851</t>
+  </si>
+  <si>
+    <t>565852</t>
+  </si>
+  <si>
+    <t>565853</t>
+  </si>
+  <si>
+    <t>565854</t>
+  </si>
+  <si>
+    <t>565855</t>
+  </si>
+  <si>
+    <t>565856</t>
+  </si>
+  <si>
+    <t>565857</t>
+  </si>
+  <si>
+    <t>565858</t>
+  </si>
+  <si>
+    <t>565859</t>
+  </si>
+  <si>
+    <t>565860</t>
+  </si>
+  <si>
+    <t>565861</t>
+  </si>
+  <si>
+    <t>565862</t>
+  </si>
+  <si>
+    <t>565863</t>
+  </si>
+  <si>
+    <t>565864</t>
+  </si>
+  <si>
+    <t>565865</t>
+  </si>
+  <si>
+    <t>565866</t>
+  </si>
+  <si>
+    <t>565867</t>
+  </si>
+  <si>
+    <t>565868</t>
+  </si>
+  <si>
+    <t>565869</t>
+  </si>
+  <si>
+    <t>565870</t>
+  </si>
+  <si>
+    <t>565871</t>
+  </si>
+  <si>
+    <t>565872</t>
+  </si>
+  <si>
+    <t>565873</t>
+  </si>
+  <si>
+    <t>565874</t>
+  </si>
+  <si>
+    <t>565875</t>
+  </si>
+  <si>
+    <t>565876</t>
+  </si>
+  <si>
+    <t>565877</t>
+  </si>
+  <si>
+    <t>565878</t>
+  </si>
+  <si>
+    <t>565879</t>
+  </si>
+  <si>
+    <t>565880</t>
+  </si>
+  <si>
+    <t>565881</t>
+  </si>
+  <si>
+    <t>565882</t>
+  </si>
+  <si>
+    <t>565883</t>
+  </si>
+  <si>
+    <t>565884</t>
+  </si>
+  <si>
+    <t>565885</t>
+  </si>
+  <si>
+    <t>565886</t>
+  </si>
+  <si>
+    <t>565887</t>
+  </si>
+  <si>
+    <t>565888</t>
+  </si>
+  <si>
+    <t>565889</t>
+  </si>
+  <si>
+    <t>565890</t>
+  </si>
+  <si>
+    <t>565891</t>
+  </si>
+  <si>
+    <t>565892</t>
+  </si>
+  <si>
+    <t>565893</t>
+  </si>
+  <si>
+    <t>565894</t>
+  </si>
+  <si>
+    <t>565895</t>
+  </si>
+  <si>
+    <t>565896</t>
+  </si>
+  <si>
+    <t>565897</t>
+  </si>
+  <si>
+    <t>565898</t>
+  </si>
+  <si>
+    <t>565899</t>
+  </si>
+  <si>
+    <t>565900</t>
+  </si>
+  <si>
+    <t>565901</t>
+  </si>
+  <si>
+    <t>565902</t>
   </si>
 </sst>
 </file>
@@ -494,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A72EA0-FC82-45CC-AE77-64DC956DCFF5}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -577,6 +2053,1974 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
